--- a/output/1Y_P101_KFSDIV.xlsx
+++ b/output/1Y_P101_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.5775</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.7066</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="F3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="H3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="M3" s="1">
         <v>0.2</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0122</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.1511</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E4" s="1">
-        <v>1879.4063</v>
+        <v>1875.6434</v>
       </c>
       <c r="F4" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="H4" s="1">
-        <v>20957.4476</v>
+        <v>20873.6608</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20957.4476</v>
+        <v>20873.6608</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.6417</v>
+        <v>10.663</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0415</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.5294</v>
       </c>
       <c r="C5" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D5" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E5" s="1">
-        <v>2776.1788</v>
+        <v>2770.6182</v>
       </c>
       <c r="F5" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="H5" s="1">
-        <v>32007.6761</v>
+        <v>31879.5638</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32007.6761</v>
+        <v>31879.5638</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.8062</v>
+        <v>10.8279</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0339</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D6" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E6" s="1">
-        <v>3643.5191</v>
+        <v>3636.2317</v>
       </c>
       <c r="F6" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="H6" s="1">
-        <v>39763.9103</v>
+        <v>39605.1081</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39763.9103</v>
+        <v>39605.1081</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9784</v>
+        <v>11.0004</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1249.2805</v>
+        <v>1246.7782</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8750.719499999999</v>
+        <v>-8753.221799999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0534</v>
+        <v>-0.0543</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.2587</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E7" s="1">
-        <v>4559.8071</v>
+        <v>4550.6846</v>
       </c>
       <c r="F7" s="1">
-        <v>904.0536</v>
+        <v>902.2107999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>51337.0437</v>
+        <v>51132.4022</v>
       </c>
       <c r="I7" s="1">
-        <v>1249.2805</v>
+        <v>1246.7782</v>
       </c>
       <c r="J7" s="1">
-        <v>52586.3242</v>
+        <v>52379.1804</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.9654</v>
+        <v>10.9874</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10178.4686</v>
+        <v>-10178.1112</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0567</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.6434</v>
       </c>
       <c r="C8" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D8" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E8" s="1">
-        <v>5463.8607</v>
+        <v>5452.8954</v>
       </c>
       <c r="F8" s="1">
-        <v>874.1835</v>
+        <v>872.407</v>
       </c>
       <c r="H8" s="1">
-        <v>63617.9155</v>
+        <v>63363.1903</v>
       </c>
       <c r="I8" s="1">
-        <v>1070.8118</v>
+        <v>1068.667</v>
       </c>
       <c r="J8" s="1">
-        <v>64688.7274</v>
+        <v>64431.8573</v>
       </c>
       <c r="K8" s="1">
-        <v>60178.4686</v>
+        <v>60178.1112</v>
       </c>
       <c r="L8" s="1">
-        <v>11.0139</v>
+        <v>11.036</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10178.4686</v>
+        <v>-10178.1112</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0336</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>11.3141</v>
       </c>
       <c r="C9" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D9" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E9" s="1">
-        <v>6338.0442</v>
+        <v>6325.3025</v>
       </c>
       <c r="F9" s="1">
-        <v>899.6269</v>
+        <v>897.794</v>
       </c>
       <c r="H9" s="1">
-        <v>71709.2662</v>
+        <v>71422.1529</v>
       </c>
       <c r="I9" s="1">
-        <v>892.3432</v>
+        <v>890.5558</v>
       </c>
       <c r="J9" s="1">
-        <v>72601.6094</v>
+        <v>72312.7087</v>
       </c>
       <c r="K9" s="1">
-        <v>70356.93730000001</v>
+        <v>70356.22229999999</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1007</v>
+        <v>11.123</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1966.9898</v>
+        <v>1963.0424</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8211.478800000001</v>
+        <v>-8215.068799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0279</v>
+        <v>-0.0285</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.003</v>
       </c>
       <c r="C10" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D10" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E10" s="1">
-        <v>7237.6711</v>
+        <v>7223.0965</v>
       </c>
       <c r="F10" s="1">
-        <v>969.7551999999999</v>
+        <v>967.6893</v>
       </c>
       <c r="H10" s="1">
-        <v>79636.09540000001</v>
+        <v>79316.82249999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2680.8644</v>
+        <v>2675.487</v>
       </c>
       <c r="J10" s="1">
-        <v>82316.9598</v>
+        <v>81992.3095</v>
       </c>
       <c r="K10" s="1">
-        <v>80535.4059</v>
+        <v>80534.33349999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1273</v>
+        <v>11.1496</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10670.2161</v>
+        <v>-10668.8718</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0034</v>
+        <v>-0.0039</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.1102</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E11" s="1">
-        <v>8207.426299999999</v>
+        <v>8190.7858</v>
       </c>
       <c r="F11" s="1">
-        <v>960.3896</v>
+        <v>958.3536</v>
       </c>
       <c r="H11" s="1">
-        <v>91186.14750000001</v>
+        <v>90819.4332</v>
       </c>
       <c r="I11" s="1">
-        <v>2010.6483</v>
+        <v>2006.6153</v>
       </c>
       <c r="J11" s="1">
-        <v>93196.79580000001</v>
+        <v>92826.0485</v>
       </c>
       <c r="K11" s="1">
-        <v>91205.622</v>
+        <v>91203.2053</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1126</v>
+        <v>11.1349</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10670.2161</v>
+        <v>-10668.8718</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0095</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.623</v>
       </c>
       <c r="C12" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D12" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E12" s="1">
-        <v>9167.8158</v>
+        <v>9149.139499999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1004.4447</v>
+        <v>1002.3084</v>
       </c>
       <c r="H12" s="1">
-        <v>97389.7077</v>
+        <v>96996.4317</v>
       </c>
       <c r="I12" s="1">
-        <v>1340.4322</v>
+        <v>1337.7435</v>
       </c>
       <c r="J12" s="1">
-        <v>98730.13989999999</v>
+        <v>98334.1753</v>
       </c>
       <c r="K12" s="1">
-        <v>101875.8381</v>
+        <v>101872.077</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1123</v>
+        <v>11.1346</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>738.6684</v>
+        <v>737.1707</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9931.547699999999</v>
+        <v>-9931.700999999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0433</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>9.977</v>
       </c>
       <c r="C13" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E13" s="1">
-        <v>10172.2606</v>
+        <v>10151.4479</v>
       </c>
       <c r="F13" s="1">
-        <v>1143.5185</v>
+        <v>1140.9465</v>
       </c>
       <c r="H13" s="1">
-        <v>101488.6435</v>
+        <v>101077.9667</v>
       </c>
       <c r="I13" s="1">
-        <v>1408.8845</v>
+        <v>1406.0425</v>
       </c>
       <c r="J13" s="1">
-        <v>102897.528</v>
+        <v>102484.0092</v>
       </c>
       <c r="K13" s="1">
-        <v>112546.0542</v>
+        <v>112540.9488</v>
       </c>
       <c r="L13" s="1">
-        <v>11.064</v>
+        <v>11.0862</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11408.8845</v>
+        <v>-11406.0425</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0536</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.5542</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E14" s="1">
-        <v>11315.7791</v>
+        <v>11292.3944</v>
       </c>
       <c r="F14" s="1">
-        <v>-11315.7791</v>
+        <v>-11292.3944</v>
       </c>
       <c r="H14" s="1">
-        <v>119428.9957</v>
+        <v>118943.9198</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119428.9957</v>
+        <v>118943.9198</v>
       </c>
       <c r="K14" s="1">
-        <v>123954.9387</v>
+        <v>123946.9913</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9542</v>
+        <v>10.9761</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119428.9957</v>
+        <v>118943.9198</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.5775</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.7066</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="F3" s="1">
-        <v>922.6037</v>
+        <v>928.2359</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="M3" s="1">
         <v>0.2</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9877.9485</v>
+        <v>-9958.2075</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0122</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.1511</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E4" s="1">
-        <v>1868.0067</v>
+        <v>1871.7478</v>
       </c>
       <c r="F4" s="1">
-        <v>822.3108999999999</v>
+        <v>823.9606</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20830.329</v>
+        <v>20830.3073</v>
       </c>
       <c r="I4" s="1">
-        <v>122.0515</v>
+        <v>41.7925</v>
       </c>
       <c r="J4" s="1">
-        <v>20952.3805</v>
+        <v>20872.0998</v>
       </c>
       <c r="K4" s="1">
-        <v>19877.9485</v>
+        <v>19958.2075</v>
       </c>
       <c r="L4" s="1">
-        <v>10.6413</v>
+        <v>10.6629</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9169.671</v>
+        <v>-9206.5237</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0413</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.5294</v>
       </c>
       <c r="C5" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D5" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E5" s="1">
-        <v>2690.3175</v>
+        <v>2695.7084</v>
       </c>
       <c r="F5" s="1">
-        <v>779.0737</v>
+        <v>780.648</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31017.7471</v>
+        <v>31017.6299</v>
       </c>
       <c r="I5" s="1">
-        <v>952.3805</v>
+        <v>835.2688000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>31970.1276</v>
+        <v>31852.8987</v>
       </c>
       <c r="K5" s="1">
-        <v>29047.6195</v>
+        <v>29164.7312</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7971</v>
+        <v>10.8189</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8982.3308</v>
+        <v>-9018.436</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0329</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D6" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E6" s="1">
-        <v>3469.3913</v>
+        <v>3476.3564</v>
       </c>
       <c r="F6" s="1">
-        <v>1096.8012</v>
+        <v>1080.5937</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37863.5488</v>
+        <v>37863.779</v>
       </c>
       <c r="I6" s="1">
-        <v>1970.0497</v>
+        <v>1816.8328</v>
       </c>
       <c r="J6" s="1">
-        <v>39833.5985</v>
+        <v>39680.6117</v>
       </c>
       <c r="K6" s="1">
-        <v>38029.9503</v>
+        <v>38183.1672</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9616</v>
+        <v>10.9837</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1210.6429</v>
+        <v>1213.0688</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10759.4068</v>
+        <v>-10603.764</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0509</v>
+        <v>-0.0519</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.2587</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E7" s="1">
-        <v>4566.1925</v>
+        <v>4556.9502</v>
       </c>
       <c r="F7" s="1">
-        <v>763.0669</v>
+        <v>782.9334</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51408.935</v>
+        <v>51202.8034</v>
       </c>
       <c r="I7" s="1">
-        <v>1210.6429</v>
+        <v>1213.0688</v>
       </c>
       <c r="J7" s="1">
-        <v>52619.5779</v>
+        <v>52415.8722</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.95</v>
+        <v>10.9723</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8591.1414</v>
+        <v>-8832.5069</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0559</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.6434</v>
       </c>
       <c r="C8" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D8" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E8" s="1">
-        <v>5329.2594</v>
+        <v>5339.8836</v>
       </c>
       <c r="F8" s="1">
-        <v>682.7302</v>
+        <v>684.1609999999999</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62050.699</v>
+        <v>62049.9813</v>
       </c>
       <c r="I8" s="1">
-        <v>2619.5015</v>
+        <v>2380.5619</v>
       </c>
       <c r="J8" s="1">
-        <v>64670.2006</v>
+        <v>64430.5432</v>
       </c>
       <c r="K8" s="1">
-        <v>58591.1414</v>
+        <v>58832.5069</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9942</v>
+        <v>11.0176</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7949.301</v>
+        <v>-7981.9006</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0327</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>11.3141</v>
       </c>
       <c r="C9" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D9" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E9" s="1">
-        <v>6011.9896</v>
+        <v>6024.0445</v>
       </c>
       <c r="F9" s="1">
-        <v>1058.8335</v>
+        <v>1060.9309</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68020.2518</v>
+        <v>68020.499</v>
       </c>
       <c r="I9" s="1">
-        <v>4670.2006</v>
+        <v>4398.6613</v>
       </c>
       <c r="J9" s="1">
-        <v>72690.45239999999</v>
+        <v>72419.1603</v>
       </c>
       <c r="K9" s="1">
-        <v>66540.4423</v>
+        <v>66814.4075</v>
       </c>
       <c r="L9" s="1">
-        <v>11.068</v>
+        <v>11.0913</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1918.5334</v>
+        <v>1922.3581</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10061.2148</v>
+        <v>-10105.2031</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0265</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.003</v>
       </c>
       <c r="C10" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D10" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E10" s="1">
-        <v>7070.8231</v>
+        <v>7084.9754</v>
       </c>
       <c r="F10" s="1">
-        <v>1108.7643</v>
+        <v>1110.9994</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77800.2669</v>
+        <v>77800.1151</v>
       </c>
       <c r="I10" s="1">
-        <v>4608.9858</v>
+        <v>4293.4582</v>
       </c>
       <c r="J10" s="1">
-        <v>82409.2527</v>
+        <v>82093.5733</v>
       </c>
       <c r="K10" s="1">
-        <v>78520.1905</v>
+        <v>78841.9687</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1048</v>
+        <v>11.1281</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12199.7331</v>
+        <v>-12248.8799</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0034</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.1102</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E11" s="1">
-        <v>8179.5874</v>
+        <v>8195.974899999999</v>
       </c>
       <c r="F11" s="1">
-        <v>821.1507</v>
+        <v>822.7842000000001</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90876.8518</v>
+        <v>90876.9693</v>
       </c>
       <c r="I11" s="1">
-        <v>2409.2527</v>
+        <v>2044.5783</v>
       </c>
       <c r="J11" s="1">
-        <v>93286.1045</v>
+        <v>92921.54760000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90719.92359999999</v>
+        <v>91090.8486</v>
       </c>
       <c r="L11" s="1">
-        <v>11.091</v>
+        <v>11.1141</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9123.230299999999</v>
+        <v>-9159.6446</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.623</v>
       </c>
       <c r="C12" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D12" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E12" s="1">
-        <v>9000.7381</v>
+        <v>9018.759</v>
       </c>
       <c r="F12" s="1">
-        <v>1250.6846</v>
+        <v>1210.5008</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95614.8404</v>
+        <v>95614.17750000001</v>
       </c>
       <c r="I12" s="1">
-        <v>3286.0223</v>
+        <v>2884.9337</v>
       </c>
       <c r="J12" s="1">
-        <v>98900.8628</v>
+        <v>98499.1112</v>
       </c>
       <c r="K12" s="1">
-        <v>99843.1539</v>
+        <v>100250.4932</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0928</v>
+        <v>11.1158</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>736.1629</v>
+        <v>737.6377</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12549.8595</v>
+        <v>-12147.296</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0425</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>9.977</v>
       </c>
       <c r="C13" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E13" s="1">
-        <v>10251.4226</v>
+        <v>10229.2598</v>
       </c>
       <c r="F13" s="1">
-        <v>1076.0913</v>
+        <v>1074.086</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>102278.4437</v>
+        <v>101852.74</v>
       </c>
       <c r="I13" s="1">
-        <v>736.1629</v>
+        <v>737.6377</v>
       </c>
       <c r="J13" s="1">
-        <v>103014.6066</v>
+        <v>102590.3778</v>
       </c>
       <c r="K13" s="1">
-        <v>113129.1763</v>
+        <v>113135.4269</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0355</v>
+        <v>11.06</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10736.1629</v>
+        <v>-10737.6377</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0541</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.5542</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E14" s="1">
-        <v>11327.5139</v>
+        <v>11303.3458</v>
       </c>
       <c r="F14" s="1">
-        <v>-11327.5139</v>
+        <v>-11303.3458</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119552.8476</v>
+        <v>119059.2719</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119552.8476</v>
+        <v>119059.2719</v>
       </c>
       <c r="K14" s="1">
-        <v>123865.3391</v>
+        <v>123873.0646</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9349</v>
+        <v>10.959</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119552.8476</v>
+        <v>119059.2719</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0579</v>
+        <v>0.0575</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.5775</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.7066</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="F3" s="1">
-        <v>927.2737</v>
+        <v>932.9153</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="M3" s="1">
         <v>0.2</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9927.9485</v>
+        <v>-10008.4083</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0122</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.1511</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E4" s="1">
-        <v>1872.6767</v>
+        <v>1876.4272</v>
       </c>
       <c r="F4" s="1">
-        <v>831.1149</v>
+        <v>832.7822</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20882.4048</v>
+        <v>20882.3831</v>
       </c>
       <c r="I4" s="1">
-        <v>72.0515</v>
+        <v>-8.408300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>20954.4563</v>
+        <v>20873.9748</v>
       </c>
       <c r="K4" s="1">
-        <v>19927.9485</v>
+        <v>20008.4083</v>
       </c>
       <c r="L4" s="1">
-        <v>10.6414</v>
+        <v>10.663</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9267.8452</v>
+        <v>-9305.0923</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0414</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.5294</v>
       </c>
       <c r="C5" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D5" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E5" s="1">
-        <v>2703.7916</v>
+        <v>2709.2094</v>
       </c>
       <c r="F5" s="1">
-        <v>791.707</v>
+        <v>793.3067</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31173.0943</v>
+        <v>31172.9766</v>
       </c>
       <c r="I5" s="1">
-        <v>804.2063000000001</v>
+        <v>686.4995</v>
       </c>
       <c r="J5" s="1">
-        <v>31977.3006</v>
+        <v>31859.476</v>
       </c>
       <c r="K5" s="1">
-        <v>29195.7937</v>
+        <v>29313.5005</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7981</v>
+        <v>10.8199</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9127.9861</v>
+        <v>-9164.675499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.033</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D6" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E6" s="1">
-        <v>3495.4986</v>
+        <v>3502.5161</v>
       </c>
       <c r="F6" s="1">
-        <v>1069.878</v>
+        <v>1053.6166</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38148.4732</v>
+        <v>38148.7051</v>
       </c>
       <c r="I6" s="1">
-        <v>1676.2202</v>
+        <v>1521.824</v>
       </c>
       <c r="J6" s="1">
-        <v>39824.6935</v>
+        <v>39670.5291</v>
       </c>
       <c r="K6" s="1">
-        <v>38323.7798</v>
+        <v>38478.176</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9638</v>
+        <v>10.9859</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1216.7062</v>
+        <v>1219.1442</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10459.514</v>
+        <v>-10302.6798</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0513</v>
+        <v>-0.0523</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.2587</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E7" s="1">
-        <v>4565.3765</v>
+        <v>4556.1327</v>
       </c>
       <c r="F7" s="1">
-        <v>830.9444</v>
+        <v>850.9461</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51399.7484</v>
+        <v>51193.6182</v>
       </c>
       <c r="I7" s="1">
-        <v>1216.7062</v>
+        <v>1219.1442</v>
       </c>
       <c r="J7" s="1">
-        <v>52616.4546</v>
+        <v>52412.7624</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.952</v>
+        <v>10.9742</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9355.353499999999</v>
+        <v>-9599.7783</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.056</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.6434</v>
       </c>
       <c r="C8" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D8" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E8" s="1">
-        <v>5396.3209</v>
+        <v>5407.0788</v>
       </c>
       <c r="F8" s="1">
-        <v>706.6038</v>
+        <v>708.0832</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>62831.5231</v>
+        <v>62830.7963</v>
       </c>
       <c r="I8" s="1">
-        <v>1861.3527</v>
+        <v>1619.3659</v>
       </c>
       <c r="J8" s="1">
-        <v>64692.8758</v>
+        <v>64450.1623</v>
       </c>
       <c r="K8" s="1">
-        <v>59355.3535</v>
+        <v>59599.7783</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9992</v>
+        <v>11.0225</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8227.2708</v>
+        <v>-8260.994199999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0332</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>11.3141</v>
       </c>
       <c r="C9" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D9" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E9" s="1">
-        <v>6102.9247</v>
+        <v>6115.162</v>
       </c>
       <c r="F9" s="1">
-        <v>1092.883</v>
+        <v>1095.0482</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69049.1008</v>
+        <v>69049.3517</v>
       </c>
       <c r="I9" s="1">
-        <v>3634.0819</v>
+        <v>3358.3717</v>
       </c>
       <c r="J9" s="1">
-        <v>72683.1826</v>
+        <v>72407.7234</v>
       </c>
       <c r="K9" s="1">
-        <v>67582.6243</v>
+        <v>67860.77250000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0738</v>
+        <v>11.0971</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1942.6755</v>
+        <v>1946.5484</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10422.3116</v>
+        <v>-10467.7935</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0269</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.003</v>
       </c>
       <c r="C10" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D10" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E10" s="1">
-        <v>7195.8077</v>
+        <v>7210.2101</v>
       </c>
       <c r="F10" s="1">
-        <v>1149.2944</v>
+        <v>1151.611</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79175.4721</v>
+        <v>79175.31759999999</v>
       </c>
       <c r="I10" s="1">
-        <v>3211.7703</v>
+        <v>2890.5782</v>
       </c>
       <c r="J10" s="1">
-        <v>82387.2424</v>
+        <v>82065.8958</v>
       </c>
       <c r="K10" s="1">
-        <v>79947.61139999999</v>
+        <v>80275.11440000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1103</v>
+        <v>11.1335</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12645.6862</v>
+        <v>-12696.6267</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0036</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.1102</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E11" s="1">
-        <v>8345.1021</v>
+        <v>8361.8212</v>
       </c>
       <c r="F11" s="1">
-        <v>860.8766000000001</v>
+        <v>862.5894</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92715.75320000001</v>
+        <v>92715.8732</v>
       </c>
       <c r="I11" s="1">
-        <v>566.0841</v>
+        <v>193.9515</v>
       </c>
       <c r="J11" s="1">
-        <v>93281.8373</v>
+        <v>92909.82460000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92593.29760000001</v>
+        <v>92971.7411</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0955</v>
+        <v>11.1186</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9564.5969</v>
+        <v>-9602.7762</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.623</v>
       </c>
       <c r="C12" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D12" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E12" s="1">
-        <v>9205.9787</v>
+        <v>9224.4105</v>
       </c>
       <c r="F12" s="1">
-        <v>1035.629</v>
+        <v>995.0091</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97795.1113</v>
+        <v>97794.4332</v>
       </c>
       <c r="I12" s="1">
-        <v>1001.4872</v>
+        <v>591.1753</v>
       </c>
       <c r="J12" s="1">
-        <v>98796.59849999999</v>
+        <v>98385.60860000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102157.8946</v>
+        <v>102574.5173</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0969</v>
+        <v>11.1199</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>751.0592</v>
+        <v>752.5639</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10250.428</v>
+        <v>-9838.6114</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0434</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>9.977</v>
       </c>
       <c r="C13" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E13" s="1">
-        <v>10241.6077</v>
+        <v>10219.4196</v>
       </c>
       <c r="F13" s="1">
-        <v>1077.5844</v>
+        <v>1075.5791</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>102180.5199</v>
+        <v>101754.7613</v>
       </c>
       <c r="I13" s="1">
-        <v>751.0592</v>
+        <v>752.5639</v>
       </c>
       <c r="J13" s="1">
-        <v>102931.5791</v>
+        <v>102507.3252</v>
       </c>
       <c r="K13" s="1">
-        <v>113159.3817</v>
+        <v>113165.6926</v>
       </c>
       <c r="L13" s="1">
-        <v>11.049</v>
+        <v>11.0736</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10751.0592</v>
+        <v>-10752.5639</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0539</v>
+        <v>-0.0542</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.5542</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E14" s="1">
-        <v>11319.192</v>
+        <v>11294.9987</v>
       </c>
       <c r="F14" s="1">
-        <v>-11319.192</v>
+        <v>-11294.9987</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119465.0167</v>
+        <v>118971.3508</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119465.0167</v>
+        <v>118971.3508</v>
       </c>
       <c r="K14" s="1">
-        <v>123910.4409</v>
+        <v>123918.2565</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9469</v>
+        <v>10.9711</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119465.0167</v>
+        <v>118971.3508</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0579</v>
+        <v>0.0575</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.5775</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.7066</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="F3" s="1">
-        <v>931.9437</v>
+        <v>932.1315</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="M3" s="1">
         <v>0.2</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9977.9485</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0122</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.1511</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E4" s="1">
-        <v>1877.3467</v>
+        <v>1875.6434</v>
       </c>
       <c r="F4" s="1">
-        <v>839.9637</v>
+        <v>847.1119</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20934.4806</v>
+        <v>20873.6608</v>
       </c>
       <c r="I4" s="1">
-        <v>22.0515</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20956.5321</v>
+        <v>20873.6608</v>
       </c>
       <c r="K4" s="1">
-        <v>19977.9485</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.6416</v>
+        <v>10.663</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9366.519399999999</v>
+        <v>-9465.205099999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0415</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.5294</v>
       </c>
       <c r="C5" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D5" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E5" s="1">
-        <v>2717.3104</v>
+        <v>2722.7554</v>
       </c>
       <c r="F5" s="1">
-        <v>804.4696</v>
+        <v>806.0949000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31328.9585</v>
+        <v>31328.8402</v>
       </c>
       <c r="I5" s="1">
-        <v>655.5321</v>
+        <v>534.7949</v>
       </c>
       <c r="J5" s="1">
-        <v>31984.4906</v>
+        <v>31863.635</v>
       </c>
       <c r="K5" s="1">
-        <v>29344.4679</v>
+        <v>29465.2051</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7991</v>
+        <v>10.8218</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9275.1319</v>
+        <v>-9312.411400000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0332</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D6" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E6" s="1">
-        <v>3521.78</v>
+        <v>3528.8503</v>
       </c>
       <c r="F6" s="1">
-        <v>1042.7723</v>
+        <v>1026.2341</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38435.2979</v>
+        <v>38435.5315</v>
       </c>
       <c r="I6" s="1">
-        <v>1380.4002</v>
+        <v>1222.3834</v>
       </c>
       <c r="J6" s="1">
-        <v>39815.6981</v>
+        <v>39657.9149</v>
       </c>
       <c r="K6" s="1">
-        <v>38619.5998</v>
+        <v>38777.6166</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9659</v>
+        <v>10.9887</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1222.7897</v>
+        <v>1225.2399</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10157.6105</v>
+        <v>-9997.1435</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0517</v>
+        <v>-0.0527</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.2587</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E7" s="1">
-        <v>4564.5523</v>
+        <v>4555.0844</v>
       </c>
       <c r="F7" s="1">
-        <v>899.7284</v>
+        <v>920.0896</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51390.4686</v>
+        <v>51181.8396</v>
       </c>
       <c r="I7" s="1">
-        <v>1222.7897</v>
+        <v>1225.2399</v>
       </c>
       <c r="J7" s="1">
-        <v>52613.2583</v>
+        <v>52407.0795</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.954</v>
+        <v>10.9767</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10129.7719</v>
+        <v>-10379.8071</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0562</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.6434</v>
       </c>
       <c r="C8" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D8" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E8" s="1">
-        <v>5464.2807</v>
+        <v>5475.174</v>
       </c>
       <c r="F8" s="1">
-        <v>731.1049</v>
+        <v>732.6342</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63622.8058</v>
+        <v>63622.0699</v>
       </c>
       <c r="I8" s="1">
-        <v>1093.0177</v>
+        <v>845.4329</v>
       </c>
       <c r="J8" s="1">
-        <v>64715.8236</v>
+        <v>64467.5028</v>
       </c>
       <c r="K8" s="1">
-        <v>60129.7719</v>
+        <v>60379.8071</v>
       </c>
       <c r="L8" s="1">
-        <v>11.0042</v>
+        <v>11.0279</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8512.5463</v>
+        <v>-8547.4229</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0336</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>11.3141</v>
       </c>
       <c r="C9" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D9" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E9" s="1">
-        <v>6195.3855</v>
+        <v>6207.8082</v>
       </c>
       <c r="F9" s="1">
-        <v>1111.9286</v>
+        <v>1084.7867</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70095.2116</v>
+        <v>70095.4663</v>
       </c>
       <c r="I9" s="1">
-        <v>2580.4715</v>
+        <v>2298.0099</v>
       </c>
       <c r="J9" s="1">
-        <v>72675.68309999999</v>
+        <v>72393.4762</v>
       </c>
       <c r="K9" s="1">
-        <v>68642.31819999999</v>
+        <v>68927.23</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0796</v>
+        <v>11.1033</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1967.141</v>
+        <v>1971.0627</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10613.3304</v>
+        <v>-10326.9473</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0273</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.003</v>
       </c>
       <c r="C10" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D10" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E10" s="1">
-        <v>7307.3142</v>
+        <v>7292.5949</v>
       </c>
       <c r="F10" s="1">
-        <v>1087.6253</v>
+        <v>1085.8008</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80402.3777</v>
+        <v>80079.9847</v>
       </c>
       <c r="I10" s="1">
-        <v>1967.141</v>
+        <v>1971.0627</v>
       </c>
       <c r="J10" s="1">
-        <v>82369.5187</v>
+        <v>82051.04730000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81222.78969999999</v>
+        <v>81225.2399</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1153</v>
+        <v>11.138</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11967.141</v>
+        <v>-11971.0627</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0037</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.1102</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E11" s="1">
-        <v>8394.939399999999</v>
+        <v>8378.395699999999</v>
       </c>
       <c r="F11" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93269.4562</v>
+        <v>92899.6519</v>
       </c>
       <c r="I11" s="1">
         <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>93269.4562</v>
+        <v>92899.6519</v>
       </c>
       <c r="K11" s="1">
-        <v>93189.9307</v>
+        <v>93196.3026</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1007</v>
+        <v>11.1234</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.623</v>
       </c>
       <c r="C12" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D12" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E12" s="1">
-        <v>9295.0051</v>
+        <v>9276.6666</v>
       </c>
       <c r="F12" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98740.8397</v>
+        <v>98348.4359</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98740.8397</v>
+        <v>98348.4359</v>
       </c>
       <c r="K12" s="1">
-        <v>103189.9307</v>
+        <v>103196.3026</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1017</v>
+        <v>11.1243</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>755.5445999999999</v>
+        <v>754.0556</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9244.455400000001</v>
+        <v>-9245.9444</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>9.977</v>
       </c>
       <c r="C13" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E13" s="1">
-        <v>10236.3588</v>
+        <v>10216.1365</v>
       </c>
       <c r="F13" s="1">
-        <v>1078.0339</v>
+        <v>1075.7283</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>102128.1519</v>
+        <v>101722.0712</v>
       </c>
       <c r="I13" s="1">
-        <v>755.5445999999999</v>
+        <v>754.0556</v>
       </c>
       <c r="J13" s="1">
-        <v>102883.6965</v>
+        <v>102476.1269</v>
       </c>
       <c r="K13" s="1">
-        <v>113189.9307</v>
+        <v>113196.3026</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0576</v>
+        <v>11.0801</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10755.5446</v>
+        <v>-10754.0556</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0539</v>
+        <v>-0.0542</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.5542</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E14" s="1">
-        <v>11314.3927</v>
+        <v>11291.8648</v>
       </c>
       <c r="F14" s="1">
-        <v>-11314.3927</v>
+        <v>-11291.8648</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119414.364</v>
+        <v>118938.341</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119414.364</v>
+        <v>118938.341</v>
       </c>
       <c r="K14" s="1">
-        <v>123945.4753</v>
+        <v>123950.3582</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9547</v>
+        <v>10.977</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119414.364</v>
+        <v>118938.341</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0579</v>
+        <v>0.0575</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.5775</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.7066</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E3" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="F3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10122.0515</v>
+        <v>10081.6138</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="M3" s="1">
         <v>0.2</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0122</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.1511</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E4" s="1">
-        <v>1879.4063</v>
+        <v>1875.6434</v>
       </c>
       <c r="F4" s="1">
-        <v>851.4678</v>
+        <v>860.7028</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20957.4476</v>
+        <v>20873.6608</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20957.4476</v>
+        <v>20873.6608</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.6417</v>
+        <v>10.663</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9494.8024</v>
+        <v>-9617.062599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0415</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.5294</v>
       </c>
       <c r="C5" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D5" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E5" s="1">
-        <v>2730.8741</v>
+        <v>2736.3462</v>
       </c>
       <c r="F5" s="1">
-        <v>817.3621000000001</v>
+        <v>819.0133</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31485.3397</v>
+        <v>31485.2207</v>
       </c>
       <c r="I5" s="1">
-        <v>505.1976</v>
+        <v>382.9374</v>
       </c>
       <c r="J5" s="1">
-        <v>31990.5373</v>
+        <v>31868.1581</v>
       </c>
       <c r="K5" s="1">
-        <v>29494.8024</v>
+        <v>29617.0626</v>
       </c>
       <c r="L5" s="1">
-        <v>10.8005</v>
+        <v>10.8236</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9423.775799999999</v>
+        <v>-9461.6515</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0334</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D6" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.2361</v>
+        <v>3555.3596</v>
       </c>
       <c r="F6" s="1">
-        <v>1015.3773</v>
+        <v>998.7002</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38724.0299</v>
+        <v>38724.2653</v>
       </c>
       <c r="I6" s="1">
-        <v>1081.4218</v>
+        <v>921.2859</v>
       </c>
       <c r="J6" s="1">
-        <v>39805.4517</v>
+        <v>39645.5512</v>
       </c>
       <c r="K6" s="1">
-        <v>38918.5782</v>
+        <v>39078.7141</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9684</v>
+        <v>10.9915</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1228.8933</v>
+        <v>1231.3558</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9852.5285</v>
+        <v>-9689.9301</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.052</v>
+        <v>-0.0531</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.2587</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E7" s="1">
-        <v>4563.6134</v>
+        <v>4554.0598</v>
       </c>
       <c r="F7" s="1">
-        <v>969.5354</v>
+        <v>990.1197</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51379.8984</v>
+        <v>51170.3262</v>
       </c>
       <c r="I7" s="1">
-        <v>1228.8933</v>
+        <v>1231.3558</v>
       </c>
       <c r="J7" s="1">
-        <v>52608.7917</v>
+        <v>52401.682</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.9562</v>
+        <v>10.9792</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10915.7079</v>
+        <v>-11169.8375</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0563</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.6434</v>
       </c>
       <c r="C8" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D8" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E8" s="1">
-        <v>5533.1488</v>
+        <v>5544.1795</v>
       </c>
       <c r="F8" s="1">
-        <v>756.2462</v>
+        <v>757.8267</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64424.665</v>
+        <v>64423.9198</v>
       </c>
       <c r="I8" s="1">
-        <v>313.1855</v>
+        <v>61.5183</v>
       </c>
       <c r="J8" s="1">
-        <v>64737.8504</v>
+        <v>64485.4381</v>
       </c>
       <c r="K8" s="1">
-        <v>60915.7079</v>
+        <v>61169.8375</v>
       </c>
       <c r="L8" s="1">
-        <v>11.0092</v>
+        <v>11.0332</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8805.277</v>
+        <v>-8841.3369</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.034</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>11.3141</v>
       </c>
       <c r="C9" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D9" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E9" s="1">
-        <v>6289.395</v>
+        <v>6302.0062</v>
       </c>
       <c r="F9" s="1">
-        <v>1017.1298</v>
+        <v>989.7133</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71158.84420000001</v>
+        <v>71159.1027</v>
       </c>
       <c r="I9" s="1">
-        <v>1507.9085</v>
+        <v>1220.1814</v>
       </c>
       <c r="J9" s="1">
-        <v>72666.7527</v>
+        <v>72379.2841</v>
       </c>
       <c r="K9" s="1">
-        <v>69720.98480000001</v>
+        <v>70011.1744</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0855</v>
+        <v>11.1093</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1991.9336</v>
+        <v>1995.9046</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9515.974899999999</v>
+        <v>-9224.2768</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0277</v>
+        <v>-0.0283</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.003</v>
       </c>
       <c r="C10" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D10" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E10" s="1">
-        <v>7306.5248</v>
+        <v>7291.7194</v>
       </c>
       <c r="F10" s="1">
-        <v>1089.8785</v>
+        <v>1088.054</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80393.6928</v>
+        <v>80070.37119999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1991.9336</v>
+        <v>1995.9046</v>
       </c>
       <c r="J10" s="1">
-        <v>82385.62639999999</v>
+        <v>82066.2758</v>
       </c>
       <c r="K10" s="1">
-        <v>81228.8933</v>
+        <v>81231.3558</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1173</v>
+        <v>11.1402</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11991.9336</v>
+        <v>-11995.9046</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0034</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.1102</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E11" s="1">
-        <v>8396.403399999999</v>
+        <v>8379.773499999999</v>
       </c>
       <c r="F11" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93285.7208</v>
+        <v>92914.9284</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>93285.7208</v>
+        <v>92914.9284</v>
       </c>
       <c r="K11" s="1">
-        <v>93220.8269</v>
+        <v>93227.2604</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1025</v>
+        <v>11.1253</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.623</v>
       </c>
       <c r="C12" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D12" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E12" s="1">
-        <v>9296.4691</v>
+        <v>9278.0443</v>
       </c>
       <c r="F12" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>98756.391</v>
+        <v>98363.04240000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98756.391</v>
+        <v>98363.04240000001</v>
       </c>
       <c r="K12" s="1">
-        <v>103220.8269</v>
+        <v>103227.2604</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1032</v>
+        <v>11.126</v>
       </c>
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
       <c r="N12" s="1">
-        <v>755.6763</v>
+        <v>754.1796000000001</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9244.323700000001</v>
+        <v>-9245.820400000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>9.977</v>
       </c>
       <c r="C13" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E13" s="1">
-        <v>10237.8227</v>
+        <v>10217.5143</v>
       </c>
       <c r="F13" s="1">
-        <v>1078.0471</v>
+        <v>1075.7407</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>102142.7576</v>
+        <v>101735.7895</v>
       </c>
       <c r="I13" s="1">
-        <v>755.6763</v>
+        <v>754.1796000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>102898.4339</v>
+        <v>102489.9692</v>
       </c>
       <c r="K13" s="1">
-        <v>113220.8269</v>
+        <v>113227.2604</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0591</v>
+        <v>11.0817</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10755.6763</v>
+        <v>-10754.1796</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0539</v>
+        <v>-0.0542</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.5542</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E14" s="1">
-        <v>11315.8699</v>
+        <v>11293.2549</v>
       </c>
       <c r="F14" s="1">
-        <v>-11315.8699</v>
+        <v>-11293.2549</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119429.954</v>
+        <v>118952.9837</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119429.954</v>
+        <v>118952.9837</v>
       </c>
       <c r="K14" s="1">
-        <v>123976.5032</v>
+        <v>123981.44</v>
       </c>
       <c r="L14" s="1">
-        <v>10.956</v>
+        <v>10.9784</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119429.954</v>
+        <v>118952.9837</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0579</v>
+        <v>0.0575</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9542</v>
+        <v>10.9761</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9349</v>
+        <v>10.959</v>
       </c>
       <c r="E3" s="1">
-        <v>10.9469</v>
+        <v>10.9711</v>
       </c>
       <c r="F3" s="1">
-        <v>10.9547</v>
+        <v>10.977</v>
       </c>
       <c r="G3" s="1">
-        <v>10.956</v>
+        <v>10.9784</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0072</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0636</v>
+        <v>0.0511</v>
       </c>
       <c r="D4" s="3">
-        <v>0.065</v>
+        <v>0.0528</v>
       </c>
       <c r="E4" s="3">
-        <v>0.06419999999999999</v>
+        <v>0.0519</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0638</v>
+        <v>0.0516</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0641</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1366</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1374</v>
+        <v>0.1366</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1351</v>
+        <v>0.1345</v>
       </c>
       <c r="E5" s="3">
+        <v>0.1353</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.1358</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.1364</v>
-      </c>
       <c r="G5" s="3">
-        <v>0.1368</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.09619999999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3151</v>
+        <v>0.2257</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3309</v>
+        <v>0.2412</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3234</v>
+        <v>0.2337</v>
       </c>
       <c r="F6" s="4">
-        <v>0.319</v>
+        <v>0.2303</v>
       </c>
       <c r="G6" s="4">
-        <v>0.32</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0089</v>
+        <v>-0.0164</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0071</v>
+        <v>-0.0148</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.008399999999999999</v>
+        <v>-0.016</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0091</v>
+        <v>-0.0165</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0162</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3954.9387</v>
+        <v>3946.9913</v>
       </c>
       <c r="D8" s="1">
-        <v>3865.3391</v>
+        <v>3873.0646</v>
       </c>
       <c r="E8" s="1">
-        <v>3910.4409</v>
+        <v>3918.2565</v>
       </c>
       <c r="F8" s="1">
-        <v>3945.4753</v>
+        <v>3950.3582</v>
       </c>
       <c r="G8" s="1">
-        <v>3976.5032</v>
+        <v>3981.44</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P101_KFSDIV.xlsx
+++ b/output/1Y_P101_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5775</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.7066</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.1511</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.5294</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.9136</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2587</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.6434</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.3141</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.003</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.1102</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.623</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.977</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5542</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5775</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.7066</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.1511</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.5294</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.9136</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2587</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.6434</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.3141</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.003</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.1102</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.623</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.977</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5542</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5775</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.7066</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.1511</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.5294</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.9136</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2587</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.6434</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.3141</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.003</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.1102</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.623</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.977</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5542</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5775</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.7066</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.1511</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.5294</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.9136</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2587</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.6434</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.3141</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.003</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.1102</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.623</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.977</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5542</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5775</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.7066</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.1511</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.5294</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.9136</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2587</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.6434</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.3141</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.003</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.1102</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.623</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.977</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5542</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4880.034</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9598</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9614</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9604</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9595</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
